--- a/data/pca/factorExposure/factorExposure_2015-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01017956500119917</v>
+        <v>0.01361967268142423</v>
       </c>
       <c r="C2">
-        <v>0.02909598173707556</v>
+        <v>0.03508726382264291</v>
       </c>
       <c r="D2">
-        <v>-0.1062155125970301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1290429287242319</v>
+      </c>
+      <c r="E2">
+        <v>0.0578526466803728</v>
+      </c>
+      <c r="F2">
+        <v>0.03126578010028309</v>
+      </c>
+      <c r="G2">
+        <v>0.05398112438695638</v>
+      </c>
+      <c r="H2">
+        <v>-0.1068188080532461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01550954875004344</v>
+        <v>0.01091892906205236</v>
       </c>
       <c r="C3">
-        <v>0.05371266283038433</v>
+        <v>0.04286557898237702</v>
       </c>
       <c r="D3">
-        <v>-0.08786573841797318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05636831744219722</v>
+      </c>
+      <c r="E3">
+        <v>0.03934435127646969</v>
+      </c>
+      <c r="F3">
+        <v>0.07609422390888139</v>
+      </c>
+      <c r="G3">
+        <v>0.1253435572165743</v>
+      </c>
+      <c r="H3">
+        <v>-0.06088896817076427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04495819605506954</v>
+        <v>0.0496319375919264</v>
       </c>
       <c r="C4">
-        <v>0.05793657051501339</v>
+        <v>0.07085635585918153</v>
       </c>
       <c r="D4">
-        <v>-0.1233651085301114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1451300439478952</v>
+      </c>
+      <c r="E4">
+        <v>0.05169723610310027</v>
+      </c>
+      <c r="F4">
+        <v>0.03937728194427721</v>
+      </c>
+      <c r="G4">
+        <v>-0.04546965908622736</v>
+      </c>
+      <c r="H4">
+        <v>0.002943856118072255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03437701574125499</v>
+        <v>0.03765299606277733</v>
       </c>
       <c r="C6">
-        <v>0.02373251447573379</v>
+        <v>0.02830551169068699</v>
       </c>
       <c r="D6">
-        <v>-0.1445646912654135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1408872372910113</v>
+      </c>
+      <c r="E6">
+        <v>0.0173722939658733</v>
+      </c>
+      <c r="F6">
+        <v>0.02880620019063854</v>
+      </c>
+      <c r="G6">
+        <v>-0.01818584063258144</v>
+      </c>
+      <c r="H6">
+        <v>-0.0570866908807349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01462228015440034</v>
+        <v>0.01150355716705539</v>
       </c>
       <c r="C7">
-        <v>0.02726146872966412</v>
+        <v>0.03342832683742684</v>
       </c>
       <c r="D7">
-        <v>-0.1036701291609035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0972706031751855</v>
+      </c>
+      <c r="E7">
+        <v>0.01559601396984997</v>
+      </c>
+      <c r="F7">
+        <v>0.029615334635686</v>
+      </c>
+      <c r="G7">
+        <v>0.006565850025069484</v>
+      </c>
+      <c r="H7">
+        <v>-0.08354972719387121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002546831770981469</v>
+        <v>0.003240517568783772</v>
       </c>
       <c r="C8">
-        <v>0.03861246496978235</v>
+        <v>0.04018072914577072</v>
       </c>
       <c r="D8">
-        <v>-0.06597316628850818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08053276471761017</v>
+      </c>
+      <c r="E8">
+        <v>0.02701207815194042</v>
+      </c>
+      <c r="F8">
+        <v>0.07218159671505231</v>
+      </c>
+      <c r="G8">
+        <v>0.03736187930092311</v>
+      </c>
+      <c r="H8">
+        <v>-0.05584083454329314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03762236871134919</v>
+        <v>0.03956394735146274</v>
       </c>
       <c r="C9">
-        <v>0.05225474121360158</v>
+        <v>0.06461675790798387</v>
       </c>
       <c r="D9">
-        <v>-0.1098675464572144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1214215499898014</v>
+      </c>
+      <c r="E9">
+        <v>0.03982517413242667</v>
+      </c>
+      <c r="F9">
+        <v>0.02257098219708452</v>
+      </c>
+      <c r="G9">
+        <v>-0.02644370218990922</v>
+      </c>
+      <c r="H9">
+        <v>-0.004743687162362154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1184134462427673</v>
+        <v>0.1488566930298849</v>
       </c>
       <c r="C10">
-        <v>-0.1813312102175781</v>
+        <v>-0.1873050688861901</v>
       </c>
       <c r="D10">
-        <v>-0.001654356335385992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01068146964075904</v>
+      </c>
+      <c r="E10">
+        <v>0.04042824649134283</v>
+      </c>
+      <c r="F10">
+        <v>0.05419361619393831</v>
+      </c>
+      <c r="G10">
+        <v>0.0006059089608607711</v>
+      </c>
+      <c r="H10">
+        <v>0.03280136638112004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.029270201298224</v>
+        <v>0.02834607163917818</v>
       </c>
       <c r="C11">
-        <v>0.04168646753794811</v>
+        <v>0.04566911299261893</v>
       </c>
       <c r="D11">
-        <v>-0.06021277478212277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05917988962544894</v>
+      </c>
+      <c r="E11">
+        <v>-0.007934372712403319</v>
+      </c>
+      <c r="F11">
+        <v>-0.004905691247712075</v>
+      </c>
+      <c r="G11">
+        <v>-0.002438117110019547</v>
+      </c>
+      <c r="H11">
+        <v>-0.03443098585920463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0343793606411054</v>
+        <v>0.0320918918989966</v>
       </c>
       <c r="C12">
-        <v>0.04367219611845074</v>
+        <v>0.0483316458977847</v>
       </c>
       <c r="D12">
-        <v>-0.05939650267029474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05583631769647075</v>
+      </c>
+      <c r="E12">
+        <v>0.00140438447559416</v>
+      </c>
+      <c r="F12">
+        <v>-0.008255434152086075</v>
+      </c>
+      <c r="G12">
+        <v>0.00642416174935681</v>
+      </c>
+      <c r="H12">
+        <v>-0.03546490585129864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009258474724961963</v>
+        <v>0.01555232708018493</v>
       </c>
       <c r="C13">
-        <v>0.03359224384339569</v>
+        <v>0.0391417357178994</v>
       </c>
       <c r="D13">
-        <v>-0.1386456614880263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1556284342756705</v>
+      </c>
+      <c r="E13">
+        <v>0.03032883189681467</v>
+      </c>
+      <c r="F13">
+        <v>0.06113855125019427</v>
+      </c>
+      <c r="G13">
+        <v>0.01994582736019521</v>
+      </c>
+      <c r="H13">
+        <v>-0.07563221971763809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001195847685209951</v>
+        <v>0.005802933917576878</v>
       </c>
       <c r="C14">
-        <v>0.02142896198949328</v>
+        <v>0.02311771234237804</v>
       </c>
       <c r="D14">
-        <v>-0.08642277616207147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09378396744953321</v>
+      </c>
+      <c r="E14">
+        <v>0.03288009285527599</v>
+      </c>
+      <c r="F14">
+        <v>0.01634607372175874</v>
+      </c>
+      <c r="G14">
+        <v>0.005900906969453873</v>
+      </c>
+      <c r="H14">
+        <v>-0.1007830444493604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003195514196127741</v>
+        <v>0.00106125758514581</v>
       </c>
       <c r="C15">
-        <v>0.003417232488810416</v>
+        <v>0.01188045610256381</v>
       </c>
       <c r="D15">
-        <v>-0.003000438870548463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03590574838378759</v>
+      </c>
+      <c r="E15">
+        <v>0.009502024095169389</v>
+      </c>
+      <c r="F15">
+        <v>0.001926880546043057</v>
+      </c>
+      <c r="G15">
+        <v>0.001804913603297367</v>
+      </c>
+      <c r="H15">
+        <v>-0.02315952733555263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02851443209835326</v>
+        <v>0.02796813196349749</v>
       </c>
       <c r="C16">
-        <v>0.04411746387767142</v>
+        <v>0.04659965568250646</v>
       </c>
       <c r="D16">
-        <v>-0.06333096598141093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06162734782891936</v>
+      </c>
+      <c r="E16">
+        <v>0.007901270960075028</v>
+      </c>
+      <c r="F16">
+        <v>0.0008467542376839894</v>
+      </c>
+      <c r="G16">
+        <v>-0.0002138680014518334</v>
+      </c>
+      <c r="H16">
+        <v>-0.04957325111026247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006270216721804384</v>
+        <v>0.004925654380846758</v>
       </c>
       <c r="C19">
-        <v>0.03302360889670588</v>
+        <v>0.02717810010309844</v>
       </c>
       <c r="D19">
-        <v>-0.1494631957182691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1148720040293175</v>
+      </c>
+      <c r="E19">
+        <v>0.05849130743660239</v>
+      </c>
+      <c r="F19">
+        <v>0.005150963659122825</v>
+      </c>
+      <c r="G19">
+        <v>0.02883855200177632</v>
+      </c>
+      <c r="H19">
+        <v>-0.05469127495822575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0109268438491036</v>
+        <v>0.01399306694961759</v>
       </c>
       <c r="C20">
-        <v>0.03079196275043643</v>
+        <v>0.03476650839375925</v>
       </c>
       <c r="D20">
-        <v>-0.08713319507813344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1030058498080046</v>
+      </c>
+      <c r="E20">
+        <v>0.04875759858030472</v>
+      </c>
+      <c r="F20">
+        <v>0.01468610785488364</v>
+      </c>
+      <c r="G20">
+        <v>-0.003864021282960839</v>
+      </c>
+      <c r="H20">
+        <v>-0.05565335838114483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002506311269075822</v>
+        <v>0.007497006344476565</v>
       </c>
       <c r="C21">
-        <v>0.0303410458503932</v>
+        <v>0.0382191389670813</v>
       </c>
       <c r="D21">
-        <v>-0.130340034134987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.140449215489167</v>
+      </c>
+      <c r="E21">
+        <v>0.08235678223219152</v>
+      </c>
+      <c r="F21">
+        <v>0.04364106470316177</v>
+      </c>
+      <c r="G21">
+        <v>-0.002090708154030631</v>
+      </c>
+      <c r="H21">
+        <v>-0.08168098397554568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003710008471326119</v>
+        <v>0.00724999883188569</v>
       </c>
       <c r="C22">
-        <v>0.04519219416211293</v>
+        <v>0.04175777329445417</v>
       </c>
       <c r="D22">
-        <v>-0.1058024277997523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1622030012818385</v>
+      </c>
+      <c r="E22">
+        <v>0.01947690163835416</v>
+      </c>
+      <c r="F22">
+        <v>0.09324855411708216</v>
+      </c>
+      <c r="G22">
+        <v>0.06245637159626127</v>
+      </c>
+      <c r="H22">
+        <v>-0.03847111240715648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003560863957033365</v>
+        <v>0.007376977263148963</v>
       </c>
       <c r="C23">
-        <v>0.04549923551361836</v>
+        <v>0.04223049725667554</v>
       </c>
       <c r="D23">
-        <v>-0.1051651872514685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1615065683963029</v>
+      </c>
+      <c r="E23">
+        <v>0.01992529285382396</v>
+      </c>
+      <c r="F23">
+        <v>0.09336719659699015</v>
+      </c>
+      <c r="G23">
+        <v>0.06169839652428097</v>
+      </c>
+      <c r="H23">
+        <v>-0.03794427705157354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03100314581182309</v>
+        <v>0.02923192851326059</v>
       </c>
       <c r="C24">
-        <v>0.05428933086247766</v>
+        <v>0.05863167348215658</v>
       </c>
       <c r="D24">
-        <v>-0.06514597699227911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06495692658901865</v>
+      </c>
+      <c r="E24">
+        <v>0.01072402206171818</v>
+      </c>
+      <c r="F24">
+        <v>-0.001167551927742844</v>
+      </c>
+      <c r="G24">
+        <v>-0.01018828808715245</v>
+      </c>
+      <c r="H24">
+        <v>-0.05550341451609437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03562682805789133</v>
+        <v>0.03326063041831624</v>
       </c>
       <c r="C25">
-        <v>0.05216805927849596</v>
+        <v>0.05576943399584202</v>
       </c>
       <c r="D25">
-        <v>-0.06291965699907827</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06199647597006323</v>
+      </c>
+      <c r="E25">
+        <v>0.0109443695870249</v>
+      </c>
+      <c r="F25">
+        <v>0.00153484552156911</v>
+      </c>
+      <c r="G25">
+        <v>0.001918425679802586</v>
+      </c>
+      <c r="H25">
+        <v>-0.02788287013783784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01311019227102927</v>
+        <v>0.01579496050637353</v>
       </c>
       <c r="C26">
-        <v>0.01159775790975168</v>
+        <v>0.01750921421914487</v>
       </c>
       <c r="D26">
-        <v>-0.05449337808570772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06346345124656219</v>
+      </c>
+      <c r="E26">
+        <v>0.02187861487983926</v>
+      </c>
+      <c r="F26">
+        <v>0.01891768669326713</v>
+      </c>
+      <c r="G26">
+        <v>0.0006993625607919935</v>
+      </c>
+      <c r="H26">
+        <v>-0.05797105818505677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1724264324396581</v>
+        <v>0.211800357836482</v>
       </c>
       <c r="C28">
-        <v>-0.2568773562633235</v>
+        <v>-0.2503952080648149</v>
       </c>
       <c r="D28">
-        <v>0.009808937904332425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001170130016583221</v>
+      </c>
+      <c r="E28">
+        <v>0.07472223366552137</v>
+      </c>
+      <c r="F28">
+        <v>0.03802986880791104</v>
+      </c>
+      <c r="G28">
+        <v>-0.02553275416975555</v>
+      </c>
+      <c r="H28">
+        <v>0.04217274160025272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001504862601566435</v>
+        <v>0.003311064554678902</v>
       </c>
       <c r="C29">
-        <v>0.02133669872853627</v>
+        <v>0.02143511234401917</v>
       </c>
       <c r="D29">
-        <v>-0.07404342101194017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09152592351452576</v>
+      </c>
+      <c r="E29">
+        <v>0.0239280329001163</v>
+      </c>
+      <c r="F29">
+        <v>0.03490122475240005</v>
+      </c>
+      <c r="G29">
+        <v>-0.004320750594168052</v>
+      </c>
+      <c r="H29">
+        <v>-0.09700780667998857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02704849959567144</v>
+        <v>0.03620079943391684</v>
       </c>
       <c r="C30">
-        <v>0.04776330134962627</v>
+        <v>0.06165478159915998</v>
       </c>
       <c r="D30">
-        <v>-0.1559144003021631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1725451255058412</v>
+      </c>
+      <c r="E30">
+        <v>0.02356468535279514</v>
+      </c>
+      <c r="F30">
+        <v>0.0272535772948002</v>
+      </c>
+      <c r="G30">
+        <v>-0.023896316302047</v>
+      </c>
+      <c r="H30">
+        <v>-0.07149997312222922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05828444344815505</v>
+        <v>0.05170201560617572</v>
       </c>
       <c r="C31">
-        <v>0.06502488240233972</v>
+        <v>0.07648435007336578</v>
       </c>
       <c r="D31">
-        <v>-0.07122627860897388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05530936708160537</v>
+      </c>
+      <c r="E31">
+        <v>0.02047990196120053</v>
+      </c>
+      <c r="F31">
+        <v>0.04218856068295992</v>
+      </c>
+      <c r="G31">
+        <v>0.004696966286878978</v>
+      </c>
+      <c r="H31">
+        <v>-0.01287439925914835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00894918917518101</v>
+        <v>0.01573923672876646</v>
       </c>
       <c r="C32">
-        <v>0.009863619674831264</v>
+        <v>0.01431813113435895</v>
       </c>
       <c r="D32">
-        <v>-0.07098062136164196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.113272262330588</v>
+      </c>
+      <c r="E32">
+        <v>0.07626338416636717</v>
+      </c>
+      <c r="F32">
+        <v>0.05028353595987742</v>
+      </c>
+      <c r="G32">
+        <v>-0.006166530638327484</v>
+      </c>
+      <c r="H32">
+        <v>-0.06569717653863735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01976331971289184</v>
+        <v>0.02344161935692939</v>
       </c>
       <c r="C33">
-        <v>0.03769652133993701</v>
+        <v>0.04460687829381204</v>
       </c>
       <c r="D33">
-        <v>-0.1356116528788106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1339618443799117</v>
+      </c>
+      <c r="E33">
+        <v>0.03977778903850219</v>
+      </c>
+      <c r="F33">
+        <v>0.02709101734973074</v>
+      </c>
+      <c r="G33">
+        <v>0.003897732283533233</v>
+      </c>
+      <c r="H33">
+        <v>-0.0649876262232023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02972730126469671</v>
+        <v>0.02572423289190991</v>
       </c>
       <c r="C34">
-        <v>0.06414142534432467</v>
+        <v>0.06307901754171268</v>
       </c>
       <c r="D34">
-        <v>-0.06566703429430737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05416343017951351</v>
+      </c>
+      <c r="E34">
+        <v>-0.007190010661422941</v>
+      </c>
+      <c r="F34">
+        <v>-0.01236745483862552</v>
+      </c>
+      <c r="G34">
+        <v>0.004669812023246791</v>
+      </c>
+      <c r="H34">
+        <v>-0.04619726768011585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000875985090729419</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0008387379654389004</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007425431396619706</v>
+      </c>
+      <c r="E35">
+        <v>-0.0001714605975982827</v>
+      </c>
+      <c r="F35">
+        <v>0.0009240883191730319</v>
+      </c>
+      <c r="G35">
+        <v>0.000587335876733315</v>
+      </c>
+      <c r="H35">
+        <v>-0.004243765741182324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01637801436527731</v>
+        <v>0.01852477267446626</v>
       </c>
       <c r="C36">
-        <v>0.007467062283785972</v>
+        <v>0.01510000993467667</v>
       </c>
       <c r="D36">
-        <v>-0.07770689101417788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07820826557311043</v>
+      </c>
+      <c r="E36">
+        <v>0.02989632493552558</v>
+      </c>
+      <c r="F36">
+        <v>0.01706664965202941</v>
+      </c>
+      <c r="G36">
+        <v>-0.01069671879559612</v>
+      </c>
+      <c r="H36">
+        <v>-0.04981889095244767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01776285843431446</v>
+        <v>0.02050793935438069</v>
       </c>
       <c r="C38">
-        <v>0.01801446721695278</v>
+        <v>0.01991515121108728</v>
       </c>
       <c r="D38">
-        <v>-0.06218083907426246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06653702652013588</v>
+      </c>
+      <c r="E38">
+        <v>0.03387914806948616</v>
+      </c>
+      <c r="F38">
+        <v>-0.009544043351518613</v>
+      </c>
+      <c r="G38">
+        <v>0.02600279454688799</v>
+      </c>
+      <c r="H38">
+        <v>-0.04697901587042132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03305707670565515</v>
+        <v>0.03264358971279367</v>
       </c>
       <c r="C39">
-        <v>0.056853070940384</v>
+        <v>0.06947155498121838</v>
       </c>
       <c r="D39">
-        <v>-0.085425293273259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1023133721536253</v>
+      </c>
+      <c r="E39">
+        <v>0.01312565068992762</v>
+      </c>
+      <c r="F39">
+        <v>-0.02063675560783318</v>
+      </c>
+      <c r="G39">
+        <v>-0.02011351833605832</v>
+      </c>
+      <c r="H39">
+        <v>-0.09535821409854468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01185351452473673</v>
+        <v>0.01045481507243365</v>
       </c>
       <c r="C40">
-        <v>0.04412612439184273</v>
+        <v>0.04029172482911301</v>
       </c>
       <c r="D40">
-        <v>-0.07920394107711388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08839237116978571</v>
+      </c>
+      <c r="E40">
+        <v>0.04792771990007804</v>
+      </c>
+      <c r="F40">
+        <v>0.1017549777000203</v>
+      </c>
+      <c r="G40">
+        <v>0.1088523064154626</v>
+      </c>
+      <c r="H40">
+        <v>-0.1516628247425824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02299682661213825</v>
+        <v>0.02294409055581017</v>
       </c>
       <c r="C41">
-        <v>0.003514421831614313</v>
+        <v>0.009256210205364863</v>
       </c>
       <c r="D41">
-        <v>-0.06617487074897031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0533070955989953</v>
+      </c>
+      <c r="E41">
+        <v>0.04804503913175022</v>
+      </c>
+      <c r="F41">
+        <v>0.01788170291865434</v>
+      </c>
+      <c r="G41">
+        <v>0.02150811845595583</v>
+      </c>
+      <c r="H41">
+        <v>-0.04224455576551166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02416914393369933</v>
+        <v>0.02258222131662386</v>
       </c>
       <c r="C43">
-        <v>0.01430889220325276</v>
+        <v>0.01869814853809466</v>
       </c>
       <c r="D43">
-        <v>-0.1081444562811481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08385246008184602</v>
+      </c>
+      <c r="E43">
+        <v>0.024599930502013</v>
+      </c>
+      <c r="F43">
+        <v>0.01280981242021842</v>
+      </c>
+      <c r="G43">
+        <v>0.02335505199307214</v>
+      </c>
+      <c r="H43">
+        <v>-0.04999251885925983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009507799517906649</v>
+        <v>0.01359545022318056</v>
       </c>
       <c r="C44">
-        <v>0.04189263090954792</v>
+        <v>0.04176367081008689</v>
       </c>
       <c r="D44">
-        <v>-0.08189759736045513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.10368501718346</v>
+      </c>
+      <c r="E44">
+        <v>0.04966954793608296</v>
+      </c>
+      <c r="F44">
+        <v>0.02449176256074036</v>
+      </c>
+      <c r="G44">
+        <v>0.009721993593101372</v>
+      </c>
+      <c r="H44">
+        <v>-0.06409568092349613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0103601023412918</v>
+        <v>0.01150067186633112</v>
       </c>
       <c r="C46">
-        <v>0.02498323100090364</v>
+        <v>0.02930815445539794</v>
       </c>
       <c r="D46">
-        <v>-0.08255663051755596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0879554136405795</v>
+      </c>
+      <c r="E46">
+        <v>0.03416867108590706</v>
+      </c>
+      <c r="F46">
+        <v>0.01415574900616762</v>
+      </c>
+      <c r="G46">
+        <v>-0.00949730542013664</v>
+      </c>
+      <c r="H46">
+        <v>-0.09253385920218811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08936165184523251</v>
+        <v>0.0798272561856833</v>
       </c>
       <c r="C47">
-        <v>0.07517631467855629</v>
+        <v>0.09174180217390081</v>
       </c>
       <c r="D47">
-        <v>-0.04526173485221423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03535541037069168</v>
+      </c>
+      <c r="E47">
+        <v>0.03253597743406586</v>
+      </c>
+      <c r="F47">
+        <v>0.03137206300897362</v>
+      </c>
+      <c r="G47">
+        <v>0.01663130303681583</v>
+      </c>
+      <c r="H47">
+        <v>0.04810218254820943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009617505127842251</v>
+        <v>0.01380410391010937</v>
       </c>
       <c r="C48">
-        <v>0.01634257613920082</v>
+        <v>0.02051929150495704</v>
       </c>
       <c r="D48">
-        <v>-0.06334604056044381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07217410450296322</v>
+      </c>
+      <c r="E48">
+        <v>0.05550800049389428</v>
+      </c>
+      <c r="F48">
+        <v>0.02157145658371228</v>
+      </c>
+      <c r="G48">
+        <v>-0.007184127538120538</v>
+      </c>
+      <c r="H48">
+        <v>-0.05635717339290909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05452487350479183</v>
+        <v>0.04871361239687459</v>
       </c>
       <c r="C50">
-        <v>0.05605976667443387</v>
+        <v>0.06788823997118114</v>
       </c>
       <c r="D50">
-        <v>-0.06102228009582297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05325818026936063</v>
+      </c>
+      <c r="E50">
+        <v>0.02411952307410062</v>
+      </c>
+      <c r="F50">
+        <v>0.04564358790461188</v>
+      </c>
+      <c r="G50">
+        <v>0.03714492654561097</v>
+      </c>
+      <c r="H50">
+        <v>-0.0196108653459525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009059062649819897</v>
+        <v>0.01046571779648533</v>
       </c>
       <c r="C51">
-        <v>0.01423033038670852</v>
+        <v>0.01993296325871266</v>
       </c>
       <c r="D51">
-        <v>-0.07728961794293715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08863978074119955</v>
+      </c>
+      <c r="E51">
+        <v>0.009752244324986616</v>
+      </c>
+      <c r="F51">
+        <v>0.006627179323587465</v>
+      </c>
+      <c r="G51">
+        <v>-0.0103821814646461</v>
+      </c>
+      <c r="H51">
+        <v>-0.08887144908007538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08714804224156372</v>
+        <v>0.08644210858388522</v>
       </c>
       <c r="C53">
-        <v>0.09292810940832912</v>
+        <v>0.1013206202001432</v>
       </c>
       <c r="D53">
-        <v>-0.004707665042432236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01704570828200375</v>
+      </c>
+      <c r="E53">
+        <v>0.1036761092145484</v>
+      </c>
+      <c r="F53">
+        <v>0.08873302523311731</v>
+      </c>
+      <c r="G53">
+        <v>-0.04595658677145548</v>
+      </c>
+      <c r="H53">
+        <v>0.0279300506533696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02318082224203676</v>
+        <v>0.02397640158842201</v>
       </c>
       <c r="C54">
-        <v>0.03016209976948813</v>
+        <v>0.03462563989121431</v>
       </c>
       <c r="D54">
-        <v>-0.09514813822172222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08766074158579952</v>
+      </c>
+      <c r="E54">
+        <v>0.03844021849904033</v>
+      </c>
+      <c r="F54">
+        <v>0.007737171518526195</v>
+      </c>
+      <c r="G54">
+        <v>0.02995759042271962</v>
+      </c>
+      <c r="H54">
+        <v>-0.08694531685955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08904544049721592</v>
+        <v>0.08435449473667188</v>
       </c>
       <c r="C55">
-        <v>0.07078460965885339</v>
+        <v>0.08123535666949995</v>
       </c>
       <c r="D55">
-        <v>0.009467899570850834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004631032208927749</v>
+      </c>
+      <c r="E55">
+        <v>0.04982269971710688</v>
+      </c>
+      <c r="F55">
+        <v>0.06109686501057242</v>
+      </c>
+      <c r="G55">
+        <v>-0.02217121745645013</v>
+      </c>
+      <c r="H55">
+        <v>0.01765684805781525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1368707796892939</v>
+        <v>0.1274904735323416</v>
       </c>
       <c r="C56">
-        <v>0.1037306064409159</v>
+        <v>0.1274568922637821</v>
       </c>
       <c r="D56">
-        <v>0.004920274599557617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008821130831824986</v>
+      </c>
+      <c r="E56">
+        <v>0.05062323822000223</v>
+      </c>
+      <c r="F56">
+        <v>0.05822458734394111</v>
+      </c>
+      <c r="G56">
+        <v>0.004463394748392767</v>
+      </c>
+      <c r="H56">
+        <v>0.04943666208998014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006688537236293866</v>
+        <v>0.009470675107847968</v>
       </c>
       <c r="C58">
-        <v>0.01540864224095301</v>
+        <v>0.03616698897237529</v>
       </c>
       <c r="D58">
-        <v>-0.2700725295824505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3136444547191707</v>
+      </c>
+      <c r="E58">
+        <v>0.08229010129071748</v>
+      </c>
+      <c r="F58">
+        <v>0.1098273447786003</v>
+      </c>
+      <c r="G58">
+        <v>0.06239960468991569</v>
+      </c>
+      <c r="H58">
+        <v>0.02608445214427075</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1526332020776365</v>
+        <v>0.1837640192300516</v>
       </c>
       <c r="C59">
-        <v>-0.1751190249507753</v>
+        <v>-0.1650987036001892</v>
       </c>
       <c r="D59">
-        <v>-0.03868870391510933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05749980597260052</v>
+      </c>
+      <c r="E59">
+        <v>0.03956779273924064</v>
+      </c>
+      <c r="F59">
+        <v>-0.03097352815987399</v>
+      </c>
+      <c r="G59">
+        <v>0.002958502859834923</v>
+      </c>
+      <c r="H59">
+        <v>0.02273532965494852</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2395813617565454</v>
+        <v>0.2256676110615281</v>
       </c>
       <c r="C60">
-        <v>0.08629366030014435</v>
+        <v>0.1082941915064698</v>
       </c>
       <c r="D60">
-        <v>-0.2156835374687399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1370924235419732</v>
+      </c>
+      <c r="E60">
+        <v>-0.3250572389744096</v>
+      </c>
+      <c r="F60">
+        <v>-0.08187409017033349</v>
+      </c>
+      <c r="G60">
+        <v>-0.03628025293822946</v>
+      </c>
+      <c r="H60">
+        <v>0.1439134569297668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04037384419148085</v>
+        <v>0.03817906890793655</v>
       </c>
       <c r="C61">
-        <v>0.05451295320588152</v>
+        <v>0.06321917949422491</v>
       </c>
       <c r="D61">
-        <v>-0.1013987763385453</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09368982851026375</v>
+      </c>
+      <c r="E61">
+        <v>0.004678962179135138</v>
+      </c>
+      <c r="F61">
+        <v>-0.01392892028166479</v>
+      </c>
+      <c r="G61">
+        <v>-0.005901586457850086</v>
+      </c>
+      <c r="H61">
+        <v>-0.05518624078145152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01555868658608405</v>
+        <v>0.0168028149383578</v>
       </c>
       <c r="C63">
-        <v>0.02093511009922227</v>
+        <v>0.02926952851142298</v>
       </c>
       <c r="D63">
-        <v>-0.07603522115295928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07515399864995674</v>
+      </c>
+      <c r="E63">
+        <v>0.01329240432272564</v>
+      </c>
+      <c r="F63">
+        <v>0.01341425678079223</v>
+      </c>
+      <c r="G63">
+        <v>-0.01302145475805375</v>
+      </c>
+      <c r="H63">
+        <v>-0.05145278264890504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05534383338264699</v>
+        <v>0.04965020981445652</v>
       </c>
       <c r="C64">
-        <v>0.07415533123332298</v>
+        <v>0.08159731770163683</v>
       </c>
       <c r="D64">
-        <v>-0.05208224191877853</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05555842642504048</v>
+      </c>
+      <c r="E64">
+        <v>0.0198279029486382</v>
+      </c>
+      <c r="F64">
+        <v>0.002240955367821378</v>
+      </c>
+      <c r="G64">
+        <v>-0.06620886344770935</v>
+      </c>
+      <c r="H64">
+        <v>-0.03854709590694293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03885252445650162</v>
+        <v>0.03971710124877145</v>
       </c>
       <c r="C65">
-        <v>0.02213487646680231</v>
+        <v>0.0281099840774751</v>
       </c>
       <c r="D65">
-        <v>-0.1225945524564137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1188659434593269</v>
+      </c>
+      <c r="E65">
+        <v>-0.008256926449228938</v>
+      </c>
+      <c r="F65">
+        <v>0.01488214743227635</v>
+      </c>
+      <c r="G65">
+        <v>0.001444857337332072</v>
+      </c>
+      <c r="H65">
+        <v>-0.021213415117714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03639679580696367</v>
+        <v>0.0361571592467092</v>
       </c>
       <c r="C66">
-        <v>0.06337518388408972</v>
+        <v>0.07860156697678189</v>
       </c>
       <c r="D66">
-        <v>-0.1055253732528731</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1280399420739168</v>
+      </c>
+      <c r="E66">
+        <v>0.01475919890998946</v>
+      </c>
+      <c r="F66">
+        <v>-0.009007928033061297</v>
+      </c>
+      <c r="G66">
+        <v>0.0007847926562109818</v>
+      </c>
+      <c r="H66">
+        <v>-0.0637419310774857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03897742551486526</v>
+        <v>0.03817631159864392</v>
       </c>
       <c r="C67">
-        <v>0.0235367259492999</v>
+        <v>0.02669045625631877</v>
       </c>
       <c r="D67">
-        <v>-0.03351121591865901</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02749545222399112</v>
+      </c>
+      <c r="E67">
+        <v>0.01042236247687087</v>
+      </c>
+      <c r="F67">
+        <v>-0.01701469388650512</v>
+      </c>
+      <c r="G67">
+        <v>0.02065021818375433</v>
+      </c>
+      <c r="H67">
+        <v>-0.04203547758121166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1765804537525594</v>
+        <v>0.2034219296099994</v>
       </c>
       <c r="C68">
-        <v>-0.2177373579943359</v>
+        <v>-0.1957580542438699</v>
       </c>
       <c r="D68">
-        <v>-0.01711857000855049</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02534564363482991</v>
+      </c>
+      <c r="E68">
+        <v>0.03007883723377871</v>
+      </c>
+      <c r="F68">
+        <v>0.03028854231813499</v>
+      </c>
+      <c r="G68">
+        <v>0.002171658265480078</v>
+      </c>
+      <c r="H68">
+        <v>-0.01112593090371501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08045588419668834</v>
+        <v>0.0709731072207043</v>
       </c>
       <c r="C69">
-        <v>0.08972845104098096</v>
+        <v>0.09954198836954425</v>
       </c>
       <c r="D69">
-        <v>-0.067940906556759</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04988781388494377</v>
+      </c>
+      <c r="E69">
+        <v>0.02280176795992004</v>
+      </c>
+      <c r="F69">
+        <v>0.01288607942029688</v>
+      </c>
+      <c r="G69">
+        <v>0.005673034648390575</v>
+      </c>
+      <c r="H69">
+        <v>0.02059764660468658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1580540307130027</v>
+        <v>0.188013646310831</v>
       </c>
       <c r="C71">
-        <v>-0.2181931554290531</v>
+        <v>-0.2027832940854026</v>
       </c>
       <c r="D71">
-        <v>-0.02837193703513103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03927341151545315</v>
+      </c>
+      <c r="E71">
+        <v>0.04699534450440779</v>
+      </c>
+      <c r="F71">
+        <v>0.06905659153387596</v>
+      </c>
+      <c r="G71">
+        <v>0.02799520766422028</v>
+      </c>
+      <c r="H71">
+        <v>0.004713888080246914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1037070189261595</v>
+        <v>0.09789085232338107</v>
       </c>
       <c r="C72">
-        <v>0.05742320002088444</v>
+        <v>0.07986395705436754</v>
       </c>
       <c r="D72">
-        <v>-0.09176936085513678</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09476637155917397</v>
+      </c>
+      <c r="E72">
+        <v>-0.04309498181061736</v>
+      </c>
+      <c r="F72">
+        <v>0.02900190165943854</v>
+      </c>
+      <c r="G72">
+        <v>-0.0364021907947621</v>
+      </c>
+      <c r="H72">
+        <v>-0.03692565762142935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2558056254317035</v>
+        <v>0.2350690906519032</v>
       </c>
       <c r="C73">
-        <v>0.05253447798291575</v>
+        <v>0.1015362336758911</v>
       </c>
       <c r="D73">
-        <v>-0.3303775723213712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.174719634692836</v>
+      </c>
+      <c r="E73">
+        <v>-0.6307413432732677</v>
+      </c>
+      <c r="F73">
+        <v>-0.1890038869316383</v>
+      </c>
+      <c r="G73">
+        <v>-0.06503100071368739</v>
+      </c>
+      <c r="H73">
+        <v>0.182046352900423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1045644499357741</v>
+        <v>0.09417419435694808</v>
       </c>
       <c r="C74">
-        <v>0.07662363033407653</v>
+        <v>0.09270015845633015</v>
       </c>
       <c r="D74">
-        <v>0.005431715767599815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01297994825250716</v>
+      </c>
+      <c r="E74">
+        <v>0.04125118821944284</v>
+      </c>
+      <c r="F74">
+        <v>0.07429176255142704</v>
+      </c>
+      <c r="G74">
+        <v>-0.04309777451969492</v>
+      </c>
+      <c r="H74">
+        <v>0.05422566195499483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2464760863720264</v>
+        <v>0.2237349668576259</v>
       </c>
       <c r="C75">
-        <v>0.1367985206391003</v>
+        <v>0.1683439617082956</v>
       </c>
       <c r="D75">
-        <v>0.07649333194903518</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0976836197616958</v>
+      </c>
+      <c r="E75">
+        <v>0.09743543340312837</v>
+      </c>
+      <c r="F75">
+        <v>0.02688650312365309</v>
+      </c>
+      <c r="G75">
+        <v>-0.01029014739319665</v>
+      </c>
+      <c r="H75">
+        <v>0.1014096606930948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1337818784987699</v>
+        <v>0.1227473733429153</v>
       </c>
       <c r="C76">
-        <v>0.09936753620314169</v>
+        <v>0.1142444104259941</v>
       </c>
       <c r="D76">
-        <v>0.00640787684222368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.008289642424883734</v>
+      </c>
+      <c r="E76">
+        <v>0.09983057241020614</v>
+      </c>
+      <c r="F76">
+        <v>0.04680874282081793</v>
+      </c>
+      <c r="G76">
+        <v>-0.02701267690611741</v>
+      </c>
+      <c r="H76">
+        <v>0.0001677113989538543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04633613945057467</v>
+        <v>0.05523393461427201</v>
       </c>
       <c r="C77">
-        <v>0.0666227585330214</v>
+        <v>0.07389778476028724</v>
       </c>
       <c r="D77">
-        <v>-0.03928284505643392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1312075940733133</v>
+      </c>
+      <c r="E77">
+        <v>0.3578649235845897</v>
+      </c>
+      <c r="F77">
+        <v>-0.2911974056826846</v>
+      </c>
+      <c r="G77">
+        <v>0.4859267296995918</v>
+      </c>
+      <c r="H77">
+        <v>0.6175968685897626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03415442641409543</v>
+        <v>0.04167007260032687</v>
       </c>
       <c r="C78">
-        <v>0.05893608946329393</v>
+        <v>0.06978453614753941</v>
       </c>
       <c r="D78">
-        <v>-0.1219678560873888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1356647055296351</v>
+      </c>
+      <c r="E78">
+        <v>0.01713173384533964</v>
+      </c>
+      <c r="F78">
+        <v>0.03534230248334228</v>
+      </c>
+      <c r="G78">
+        <v>0.007437915046607669</v>
+      </c>
+      <c r="H78">
+        <v>-0.009450301143377604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03706488494581889</v>
+        <v>0.04783639800037248</v>
       </c>
       <c r="C79">
-        <v>0.08148100755202226</v>
+        <v>0.09792340801423415</v>
       </c>
       <c r="D79">
-        <v>0.0963191379196293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02567756953561269</v>
+      </c>
+      <c r="E79">
+        <v>0.2119757989887154</v>
+      </c>
+      <c r="F79">
+        <v>0.3287733521561657</v>
+      </c>
+      <c r="G79">
+        <v>-0.6646256465367987</v>
+      </c>
+      <c r="H79">
+        <v>0.3809303689339507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02418489276884674</v>
+        <v>0.0240102094036838</v>
       </c>
       <c r="C80">
-        <v>0.04553262038999324</v>
+        <v>0.04663605053399411</v>
       </c>
       <c r="D80">
-        <v>-0.01726762798574839</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01940467605029801</v>
+      </c>
+      <c r="E80">
+        <v>0.018306493531726</v>
+      </c>
+      <c r="F80">
+        <v>0.00618746506019845</v>
+      </c>
+      <c r="G80">
+        <v>-0.002520415891299255</v>
+      </c>
+      <c r="H80">
+        <v>-0.06554192426961065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1366117673006522</v>
+        <v>0.120056091620069</v>
       </c>
       <c r="C81">
-        <v>0.1057484238809025</v>
+        <v>0.1236655109087491</v>
       </c>
       <c r="D81">
-        <v>0.06854925184394825</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07584519794942778</v>
+      </c>
+      <c r="E81">
+        <v>0.09963469928809396</v>
+      </c>
+      <c r="F81">
+        <v>0.06246114453719506</v>
+      </c>
+      <c r="G81">
+        <v>-0.0105487774508399</v>
+      </c>
+      <c r="H81">
+        <v>0.03048083852759468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3064869608532434</v>
+        <v>0.2568601558447234</v>
       </c>
       <c r="C82">
-        <v>0.2783220782748695</v>
+        <v>0.2743218772926825</v>
       </c>
       <c r="D82">
-        <v>0.2359305977799795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2375809993763216</v>
+      </c>
+      <c r="E82">
+        <v>-0.01229546954803886</v>
+      </c>
+      <c r="F82">
+        <v>0.01754535311607342</v>
+      </c>
+      <c r="G82">
+        <v>0.1802021232864538</v>
+      </c>
+      <c r="H82">
+        <v>-0.0193276565454228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02666188779735017</v>
+        <v>0.02141065513382616</v>
       </c>
       <c r="C83">
-        <v>0.0528583162685324</v>
+        <v>0.05011914912997818</v>
       </c>
       <c r="D83">
-        <v>-0.04620317228690733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05042626856149679</v>
+      </c>
+      <c r="E83">
+        <v>0.03204481088266442</v>
+      </c>
+      <c r="F83">
+        <v>-0.06078043778661813</v>
+      </c>
+      <c r="G83">
+        <v>0.0567726657418352</v>
+      </c>
+      <c r="H83">
+        <v>0.05406547513553985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000977106486076279</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004717524411769001</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01853966930426169</v>
+      </c>
+      <c r="E84">
+        <v>0.0169529363721603</v>
+      </c>
+      <c r="F84">
+        <v>0.01623678636295077</v>
+      </c>
+      <c r="G84">
+        <v>-0.0001293362031131671</v>
+      </c>
+      <c r="H84">
+        <v>-0.02180614011986717</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1698136130891066</v>
+        <v>0.1533557796749258</v>
       </c>
       <c r="C85">
-        <v>0.114973410891726</v>
+        <v>0.1394823700846258</v>
       </c>
       <c r="D85">
-        <v>0.03431237702506947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05989846603750693</v>
+      </c>
+      <c r="E85">
+        <v>0.03310651563772451</v>
+      </c>
+      <c r="F85">
+        <v>0.05700076041789975</v>
+      </c>
+      <c r="G85">
+        <v>-0.09419679369826063</v>
+      </c>
+      <c r="H85">
+        <v>0.03248497131829602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01573750300332591</v>
+        <v>0.01722151445420909</v>
       </c>
       <c r="C86">
-        <v>0.0354051804247052</v>
+        <v>0.03366303374797346</v>
       </c>
       <c r="D86">
-        <v>-0.1180097083843413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1161887639818532</v>
+      </c>
+      <c r="E86">
+        <v>0.03234117985322889</v>
+      </c>
+      <c r="F86">
+        <v>-0.005547244713091875</v>
+      </c>
+      <c r="G86">
+        <v>0.07348825505657607</v>
+      </c>
+      <c r="H86">
+        <v>0.01119004153395751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0187326725647633</v>
+        <v>0.03138326910327676</v>
       </c>
       <c r="C87">
-        <v>0.01668496221005288</v>
+        <v>0.02587787397622786</v>
       </c>
       <c r="D87">
-        <v>-0.0942664732794343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.130950902591283</v>
+      </c>
+      <c r="E87">
+        <v>0.05687484176521361</v>
+      </c>
+      <c r="F87">
+        <v>0.01611854512251275</v>
+      </c>
+      <c r="G87">
+        <v>0.005812044576151333</v>
+      </c>
+      <c r="H87">
+        <v>-0.06007618648187839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07120726636066106</v>
+        <v>0.06512747301743765</v>
       </c>
       <c r="C88">
-        <v>0.04168495728189612</v>
+        <v>0.05467355161913476</v>
       </c>
       <c r="D88">
-        <v>-0.04324915843554101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02507026219580143</v>
+      </c>
+      <c r="E88">
+        <v>-0.001260988470355795</v>
+      </c>
+      <c r="F88">
+        <v>0.03004234483795036</v>
+      </c>
+      <c r="G88">
+        <v>-0.007387705897903482</v>
+      </c>
+      <c r="H88">
+        <v>-0.02646508223123652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2464597751578503</v>
+        <v>0.2884632018290752</v>
       </c>
       <c r="C89">
-        <v>-0.3884928191821796</v>
+        <v>-0.3437794647847452</v>
       </c>
       <c r="D89">
-        <v>0.01890412093922284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.00371973405845143</v>
+      </c>
+      <c r="E89">
+        <v>0.05849659181745339</v>
+      </c>
+      <c r="F89">
+        <v>0.00274497139676359</v>
+      </c>
+      <c r="G89">
+        <v>-0.03974693061458085</v>
+      </c>
+      <c r="H89">
+        <v>-0.08800997423021498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.217166258110086</v>
+        <v>0.2457750792240105</v>
       </c>
       <c r="C90">
-        <v>-0.289342939732677</v>
+        <v>-0.2459801570918933</v>
       </c>
       <c r="D90">
-        <v>-0.002750082384687979</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02298364753948784</v>
+      </c>
+      <c r="E90">
+        <v>0.04731799925217162</v>
+      </c>
+      <c r="F90">
+        <v>-0.001334808299788287</v>
+      </c>
+      <c r="G90">
+        <v>0.04681250069110892</v>
+      </c>
+      <c r="H90">
+        <v>-0.04241357108900772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1742545540075947</v>
+        <v>0.1530784493007074</v>
       </c>
       <c r="C91">
-        <v>0.1494113622777251</v>
+        <v>0.1590951660701842</v>
       </c>
       <c r="D91">
-        <v>0.08627410276801159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08586200279900526</v>
+      </c>
+      <c r="E91">
+        <v>0.1016384773495257</v>
+      </c>
+      <c r="F91">
+        <v>0.06691891049195263</v>
+      </c>
+      <c r="G91">
+        <v>-0.05509298784483754</v>
+      </c>
+      <c r="H91">
+        <v>0.09509796145165499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1909701068578074</v>
+        <v>0.2316546981433081</v>
       </c>
       <c r="C92">
-        <v>-0.2730129709418913</v>
+        <v>-0.2655283271223589</v>
       </c>
       <c r="D92">
-        <v>-0.0175875944039823</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03357000012091831</v>
+      </c>
+      <c r="E92">
+        <v>0.08091736469726517</v>
+      </c>
+      <c r="F92">
+        <v>0.008140803124178158</v>
+      </c>
+      <c r="G92">
+        <v>0.02696361102264088</v>
+      </c>
+      <c r="H92">
+        <v>-0.009678157014202375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2443882456340215</v>
+        <v>0.2671195954352783</v>
       </c>
       <c r="C93">
-        <v>-0.2991178002706277</v>
+        <v>-0.2546627668424225</v>
       </c>
       <c r="D93">
-        <v>-0.007048597127299863</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.006071658579015485</v>
+      </c>
+      <c r="E93">
+        <v>-0.01326073259982132</v>
+      </c>
+      <c r="F93">
+        <v>0.02241485114915902</v>
+      </c>
+      <c r="G93">
+        <v>-0.0123302975895058</v>
+      </c>
+      <c r="H93">
+        <v>-0.003590241860091249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3705651714890543</v>
+        <v>0.3283286503806104</v>
       </c>
       <c r="C94">
-        <v>0.2279242734158634</v>
+        <v>0.2656764868627138</v>
       </c>
       <c r="D94">
-        <v>0.4419505164151586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4407130824090228</v>
+      </c>
+      <c r="E94">
+        <v>0.04769625538829415</v>
+      </c>
+      <c r="F94">
+        <v>-0.03441804983841795</v>
+      </c>
+      <c r="G94">
+        <v>0.1477224651081777</v>
+      </c>
+      <c r="H94">
+        <v>-0.356541385126079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06885687341750697</v>
+        <v>0.06729471848398363</v>
       </c>
       <c r="C95">
-        <v>0.05715456057583762</v>
+        <v>0.06160970009292699</v>
       </c>
       <c r="D95">
-        <v>-0.06430736763710922</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08164043819469841</v>
+      </c>
+      <c r="E95">
+        <v>0.2747599367751034</v>
+      </c>
+      <c r="F95">
+        <v>-0.7939703438348222</v>
+      </c>
+      <c r="G95">
+        <v>-0.4099782462907872</v>
+      </c>
+      <c r="H95">
+        <v>-0.1748000259829251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1677744355990516</v>
+        <v>0.161176226507002</v>
       </c>
       <c r="C98">
-        <v>0.04387512127466658</v>
+        <v>0.07429712004699925</v>
       </c>
       <c r="D98">
-        <v>-0.1796749849124116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1270325110518969</v>
+      </c>
+      <c r="E98">
+        <v>-0.3034494278863204</v>
+      </c>
+      <c r="F98">
+        <v>-0.0369898362272632</v>
+      </c>
+      <c r="G98">
+        <v>-0.04010541846155026</v>
+      </c>
+      <c r="H98">
+        <v>0.09294855120058637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001458603758179837</v>
+        <v>0.003402694120955873</v>
       </c>
       <c r="C101">
-        <v>0.02070745204309194</v>
+        <v>0.02068392200231869</v>
       </c>
       <c r="D101">
-        <v>-0.07416079468706761</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09138378571284006</v>
+      </c>
+      <c r="E101">
+        <v>0.02466332039884665</v>
+      </c>
+      <c r="F101">
+        <v>0.03440069329155945</v>
+      </c>
+      <c r="G101">
+        <v>-0.004526459626215753</v>
+      </c>
+      <c r="H101">
+        <v>-0.09643287196689257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1215866207341014</v>
+        <v>0.1026407117825967</v>
       </c>
       <c r="C102">
-        <v>0.1187979408431521</v>
+        <v>0.12108345317386</v>
       </c>
       <c r="D102">
-        <v>0.05281060258793484</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06355548624579629</v>
+      </c>
+      <c r="E102">
+        <v>0.02957412509550139</v>
+      </c>
+      <c r="F102">
+        <v>-0.01008895158641129</v>
+      </c>
+      <c r="G102">
+        <v>0.01307812222719945</v>
+      </c>
+      <c r="H102">
+        <v>0.03677416370741496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
